--- a/Taxonomies/MostlyImpactData/IFRC_HIP.xlsx
+++ b/Taxonomies/MostlyImpactData/IFRC_HIP.xlsx
@@ -28,128 +28,16 @@
     <t xml:space="preserve">haz_Ab</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">haz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">spec</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">haz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">cluster</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">haz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">type</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">haz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">potlink</t>
-    </r>
+    <t xml:space="preserve">haz_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haz_cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haz_spec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haz_potlink</t>
   </si>
   <si>
     <t xml:space="preserve">Flood</t>
@@ -315,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -337,12 +225,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -416,13 +298,13 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:F1"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -442,235 +324,235 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="0" t="s">
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="0" t="s">
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="0" t="s">
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
     </row>

--- a/Taxonomies/MostlyImpactData/IFRC_HIP.xlsx
+++ b/Taxonomies/MostlyImpactData/IFRC_HIP.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t xml:space="preserve">dtype</t>
   </si>
@@ -145,6 +145,9 @@
     <t xml:space="preserve">Civil Unrest</t>
   </si>
   <si>
+    <t xml:space="preserve">haztypesoc</t>
+  </si>
+  <si>
     <t xml:space="preserve">Drought</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
     <t xml:space="preserve">Transport Accident</t>
   </si>
   <si>
+    <t xml:space="preserve">haztypetech</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tsunami</t>
   </si>
   <si>
@@ -188,6 +194,9 @@
   </si>
   <si>
     <t xml:space="preserve">Chemical Emergency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haztypechem</t>
   </si>
   <si>
     <t xml:space="preserve">Insect Infestation</t>
@@ -298,7 +307,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -470,90 +479,105 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="C14" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Taxonomies/MostlyImpactData/IFRC_HIP.xlsx
+++ b/Taxonomies/MostlyImpactData/IFRC_HIP.xlsx
@@ -97,7 +97,7 @@
     <t xml:space="preserve">TC</t>
   </si>
   <si>
-    <t xml:space="preserve">hazhmwind,hazhmpress,hazhmconv,hazhmflood</t>
+    <t xml:space="preserve">hazhmwind:hazhmpress:hazhmconv:hazhmflood</t>
   </si>
   <si>
     <t xml:space="preserve">Complex Emergency</t>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">LS</t>
   </si>
   <si>
-    <t xml:space="preserve">hazgeoseis,hazenvenvdeg,hazgeovolc,hazgeoother</t>
+    <t xml:space="preserve">hazgeoseis:hazenvenvdeg:hazgeovolc:hazgeoother</t>
   </si>
   <si>
     <t xml:space="preserve">Pluvial/Flash Flood</t>
@@ -124,10 +124,10 @@
     <t xml:space="preserve">hazgeoseis</t>
   </si>
   <si>
-    <t xml:space="preserve">GH0001,GH0002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH0003,GH0004,GH0005,GH0006,GH0007</t>
+    <t xml:space="preserve">GH0001:GH0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH0003:GH0004:GH0005:GH0006:GH0007</t>
   </si>
   <si>
     <t xml:space="preserve">Fire</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">DR</t>
   </si>
   <si>
-    <t xml:space="preserve">hazhmprecip,hazhmtemp</t>
+    <t xml:space="preserve">hazhmprecip:hazhmtemp</t>
   </si>
   <si>
     <t xml:space="preserve">Storm Surge</t>
@@ -163,7 +163,7 @@
     <t xml:space="preserve">SS</t>
   </si>
   <si>
-    <t xml:space="preserve">hazhmmarine,hazhmflood,hazhmwind</t>
+    <t xml:space="preserve">hazhmmarine:hazhmflood:hazhmwind</t>
   </si>
   <si>
     <t xml:space="preserve">Food Insecurity</t>
@@ -175,7 +175,7 @@
     <t xml:space="preserve">ET</t>
   </si>
   <si>
-    <t xml:space="preserve">hazhmmarine,hazhmflood</t>
+    <t xml:space="preserve">hazhmmarine:hazhmflood</t>
   </si>
   <si>
     <t xml:space="preserve">Transport Accident</t>
@@ -190,7 +190,7 @@
     <t xml:space="preserve">TS</t>
   </si>
   <si>
-    <t xml:space="preserve">hazgeoother,hazhmmarine,hazhmflood</t>
+    <t xml:space="preserve">hazgeoother:hazhmmarine:hazhmflood</t>
   </si>
   <si>
     <t xml:space="preserve">Chemical Emergency</t>
@@ -307,10 +307,10 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="6" sqref="D8 D10 D15:D16 D18 D20 E12:F12 F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -483,7 +483,7 @@
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -538,7 +538,7 @@
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Taxonomies/MostlyImpactData/IFRC_HIP.xlsx
+++ b/Taxonomies/MostlyImpactData/IFRC_HIP.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
   <si>
     <t xml:space="preserve">dtype</t>
   </si>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">hazhmflood</t>
   </si>
   <si>
+    <t xml:space="preserve">MH0004:MH0005:MH0006:MH0007:MH0008:MH0012</t>
+  </si>
+  <si>
     <t xml:space="preserve">Volcanic Eruption</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t xml:space="preserve">hazgeovolc</t>
   </si>
   <si>
+    <t xml:space="preserve">GH0012:GH0013:GH0009:GH0010</t>
+  </si>
+  <si>
     <t xml:space="preserve">Epidemic</t>
   </si>
   <si>
@@ -91,13 +97,19 @@
     <t xml:space="preserve">hazhmtemp</t>
   </si>
   <si>
+    <t xml:space="preserve">MH0040</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cyclone</t>
   </si>
   <si>
     <t xml:space="preserve">TC</t>
   </si>
   <si>
-    <t xml:space="preserve">hazhmwind:hazhmpress:hazhmconv:hazhmflood</t>
+    <t xml:space="preserve">hazhmwind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MH0057</t>
   </si>
   <si>
     <t xml:space="preserve">Complex Emergency</t>
@@ -109,12 +121,75 @@
     <t xml:space="preserve">LS</t>
   </si>
   <si>
-    <t xml:space="preserve">hazgeoseis:hazenvenvdeg:hazgeovolc:hazgeoother</t>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">haztypehydromet:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">haztypegeohaz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hazhmterr:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">hazgeoother</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">MH0051:MH0052:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">GH0007:GH0005</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Pluvial/Flash Flood</t>
   </si>
   <si>
+    <t xml:space="preserve">MH0006</t>
+  </si>
+  <si>
     <t xml:space="preserve">Earthquake</t>
   </si>
   <si>
@@ -142,6 +217,9 @@
     <t xml:space="preserve">hazenvenvdeg</t>
   </si>
   <si>
+    <t xml:space="preserve">EN0013</t>
+  </si>
+  <si>
     <t xml:space="preserve">Civil Unrest</t>
   </si>
   <si>
@@ -154,16 +232,16 @@
     <t xml:space="preserve">DR</t>
   </si>
   <si>
-    <t xml:space="preserve">hazhmprecip:hazhmtemp</t>
+    <t xml:space="preserve">hazhmprecip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MH0035</t>
   </si>
   <si>
     <t xml:space="preserve">Storm Surge</t>
   </si>
   <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hazhmmarine:hazhmflood:hazhmwind</t>
+    <t xml:space="preserve">MH0004</t>
   </si>
   <si>
     <t xml:space="preserve">Food Insecurity</t>
@@ -172,10 +250,10 @@
     <t xml:space="preserve">Heat Wave</t>
   </si>
   <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hazhmmarine:hazhmflood</t>
+    <t xml:space="preserve">HW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MH0047</t>
   </si>
   <si>
     <t xml:space="preserve">Transport Accident</t>
@@ -191,6 +269,9 @@
   </si>
   <si>
     <t xml:space="preserve">hazgeoother:hazhmmarine:hazhmflood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH0006</t>
   </si>
   <si>
     <t xml:space="preserve">Chemical Emergency</t>
@@ -212,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -234,6 +315,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -278,13 +372,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -307,7 +409,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="6" sqref="D8 D10 D15:D16 D18 D20 E12:F12 F1"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -332,252 +434,285 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>51</v>
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
